--- a/Data/Roles.xlsx
+++ b/Data/Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH07_UpdateCourse\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8042FB-4B73-4AE1-9FAF-6D66DC0A4BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BB8C9-E97B-4BD9-81A9-8BCBDC25B26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2535" windowWidth="18990" windowHeight="15345" xr2:uid="{E1152D14-BC46-5B47-940D-456FB4C575C1}"/>
+    <workbookView xWindow="1935" yWindow="5475" windowWidth="18990" windowHeight="10005" xr2:uid="{E1152D14-BC46-5B47-940D-456FB4C575C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,7 +698,7 @@
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
